--- a/translations/SOM/admin-strings_SOM.xlsx
+++ b/translations/SOM/admin-strings_SOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/Desktop/Delivery of CTS Project - 91709/SOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/translations/SOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="4640" yWindow="2520" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,17 +226,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Wax badan ka ogow illaha deegaanka iyo warbixinta [Gobolka King EM websaydka ].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Digniin sii Gobolka King</t>
     </r>
   </si>
@@ -989,28 +978,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Waxay u dhowdahay inaad haysatid sheeyada ugu badan ee aad ugu baahantahay &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;fsanduuqa saadka qoyska &lt;/a&gt; marhore. Ogow waxa kale ee lagu darayo oo la diyaarinayo ka hor inta aysan ku dhufan dhacdada labaad. Sidoo kale waa afkaar wanaagsan in la yeesho degdeg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;sanduuqa gaariga&lt;/a&gt;.</t>
-    </r>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -1281,26 +1248,42 @@
     <t>What to Expect</t>
   </si>
   <si>
-    <t>It's likely you have most items you need for your &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;family supply kit&lt;/a&gt; already. Find out what else to add and get it organized before the next event hits. It's also a good idea to have an emergency</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;car kit&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Qulqulka foolkaanada (haraaga madow ee barafka) oo ka soo jeedo Bohosha Mount St. Helen ka dib dhacdada qaraxa ee 1982. Qulqulka foolkaanada waxay ka qulqulaan bohosha ee fargeetada Wabiga Toutle River iyo ugu dambeyntii gaaray Wabiga Cowlitz 80km (50mi) qulqulka hoose. (USGS)</t>
   </si>
   <si>
     <t>Somali</t>
   </si>
   <si>
-    <t>Tani waxay ku saleysantahay &lt;a href="http://www.opb.org/news/widget/aftershock-find-your-cascadia-earthquake-story/" target="_blank"&gt;Aftershock&lt;/a&gt;, codsiga diyaargarowga dhulgariirka oo dadka dagan Oregon.  &lt;a href="https://www.linkedin.com/in/carson-macpherson-krutsky-400645105" target="_blank"&gt;Carson MacPherson-Krutsky&lt;/a&gt; and &lt;a href="https://hs.umt.edu/geosciences/faculty/bendick/" target="_blank"&gt;Dhaqtar. Rebecca Bendick&lt;/a&gt;, ardayga qalinjabinayo iyo lataliyaheeda ee Jaamacada Montana, wuxuu qabaan fikrada lagu balaarinayo deegaanada kale iyo noocyada masiibooyinka.  &lt;a href="https://github.com/nein09" target="_blank"&gt;Melinda Minch&lt;/a&gt; and &lt;a href="https://github.com/eldang" target="_blank"&gt;Eldan Goldenberg&lt;/a&gt; loo habeeyay ujeedadaas.  Isha nooca ujeedada guud ee aagaan waxaa laga heli karaa &lt;a href="https://github.com/missoula-ready/disaster-preparedness" target="_blank"&gt;Github&lt;/a&gt;. &lt;br/&gt;Tusmada iyo xogta waxaa lagu taageeray hay’adaha oo ay ku jiraan &lt;a href="http://www.umt.edu/" alt="logo" target="_blank"&gt;Jaamacada  Montana&lt;/a&gt;, &lt;a href="http://www.kingcounty.gov/" alt="logo" target="_blank"&gt;King Gobolka &lt;/a&gt;, iyo &lt;a href="http://www.seattle.gov/" alt="logo" target="_blank"&gt;Caasimada Seattle&lt;/a&gt;.</t>
+    <t>Wax badan ka ogow illaha deegaanka iyo warbixinta [Gobolka King EM websaydka ].</t>
+  </si>
+  <si>
+    <t>Tani waxay ku saleysantahay &lt;a href="http://www.opb.org/news/widget/aftershock-find-your-cascadia-earthquake-story/" target="_blank"&gt;Aftershock&lt;/a&gt;, codsiga diyaargarowga dhulgariirka oo dadka dagan Oregon.  &lt;a href="https://www.linkedin.com/in/carson-macpherson-krutsky-400645105" target="_blank"&gt;Carson MacPherson-Krutsky&lt;/a&gt; iyo &lt;a href="https://hs.umt.edu/geosciences/faculty/bendick/" target="_blank"&gt;Dhaqtar. Rebecca Bendick&lt;/a&gt;, ardayga qalinjabinayo iyo lataliyaheeda ee Jaamacada Montana, wuxuu qabaan fikrada lagu balaarinayo deegaanada kale iyo noocyada masiibooyinka.  &lt;a href="https://github.com/nein09" target="_blank"&gt;Melinda Minch&lt;/a&gt; iyo &lt;a href="https://github.com/eldang" target="_blank"&gt;Eldan Goldenberg&lt;/a&gt; loo habeeyay ujeedadaas.  Isha nooca ujeedada guud ee aagaan waxaa laga heli karaa &lt;a href="https://github.com/missoula-ready/disaster-preparedness" target="_blank"&gt;Github&lt;/a&gt;. &lt;br/&gt;Tusmada iyo xogta waxaa lagu taageeray hay’adaha oo ay ku jiraan &lt;a href="http://www.umt.edu/" alt="logo" target="_blank"&gt;Jaamacada  Montana&lt;/a&gt;, &lt;a href="http://www.kingcounty.gov/" alt="logo" target="_blank"&gt;King Gobolka &lt;/a&gt;, iyo &lt;a href="http://www.seattle.gov/" alt="logo" target="_blank"&gt;Caasimada Seattle&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>It's likely you have most items you need for your &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;family supply kit&lt;/a&gt; already. Find out what else to add and get it organized before the next event hits. It's also a good idea to have an emergency &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;car kit&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Waxay u dhowdahay inaad haysatid sheeyada ugu badan ee aad ugu baahantahay &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;fsanduuqa saadka qoyska &lt;/a&gt; marhore. Ogow waxa kale ee lagu darayo oo la diyaarinayo ka hor inta aysan ku dhufan dhacdada labaad. Sidoo kale waa afkaar wanaagsan in la yeesho degdeg &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;sanduuqa gaariga&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What to Expect at This Location</t>
+  </si>
+  <si>
+    <t>Waxa Laga filanayo Goobtaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1343,17 +1326,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,8 +1623,8 @@
   </sheetPr>
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,15 +1635,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1667,7 +1651,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1675,7 +1659,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1683,7 +1667,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1691,7 +1675,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1699,7 +1683,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1707,7 +1691,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1715,7 +1699,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1723,7 +1707,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1731,7 +1715,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1739,7 +1723,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1747,7 +1731,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1755,7 +1739,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1763,7 +1747,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1771,7 +1755,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1779,7 +1763,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1787,7 +1771,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1795,594 +1779,594 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>88</v>
+      <c r="B91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/translations/SOM/admin-strings_SOM.xlsx
+++ b/translations/SOM/admin-strings_SOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -1270,13 +1270,68 @@
   </si>
   <si>
     <t>Waxa Laga filanayo Goobtaan</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Ka hor</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>Inta lagu jiro</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Kadib</t>
+  </si>
+  <si>
+    <t>What's Happened?</t>
+  </si>
+  <si>
+    <t>Maxaa Dhacay?</t>
+  </si>
+  <si>
+    <t>What's the Worst?</t>
+  </si>
+  <si>
+    <t>Maxaa ugu Xun?</t>
+  </si>
+  <si>
+    <t>Cascadia Quake</t>
+  </si>
+  <si>
+    <t>Dhulgariirka Cascadia</t>
+  </si>
+  <si>
+    <t>Tsunami Zone</t>
+  </si>
+  <si>
+    <t>Aaga Tusunaamiga</t>
+  </si>
+  <si>
+    <t>If the dams failed</t>
+  </si>
+  <si>
+    <t>Haddii biyo-xireenada guuldareystaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1326,17 +1381,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,10 +1677,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+      <selection activeCell="A93" sqref="A93:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,6 +2425,70 @@
         <v>183</v>
       </c>
     </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
